--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dll1</t>
+  </si>
+  <si>
+    <t>Notch4</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll1</t>
-  </si>
-  <si>
-    <t>Notch4</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H2">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I2">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J2">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N2">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O2">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P2">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q2">
-        <v>603.8405782882977</v>
+        <v>773.2317540202541</v>
       </c>
       <c r="R2">
-        <v>5434.565204594681</v>
+        <v>6959.085786182286</v>
       </c>
       <c r="S2">
-        <v>0.6601990287434614</v>
+        <v>0.5683301032358772</v>
       </c>
       <c r="T2">
-        <v>0.6601990287434614</v>
+        <v>0.5683301032358771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H3">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I3">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J3">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P3">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q3">
-        <v>36.32451458636389</v>
+        <v>45.94283688861056</v>
       </c>
       <c r="R3">
-        <v>326.920631277275</v>
+        <v>413.485531997495</v>
       </c>
       <c r="S3">
-        <v>0.03971480240277168</v>
+        <v>0.03376826817586847</v>
       </c>
       <c r="T3">
-        <v>0.03971480240277168</v>
+        <v>0.03376826817586847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H4">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I4">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J4">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N4">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q4">
-        <v>9.337544837957777</v>
+        <v>14.08755736891167</v>
       </c>
       <c r="R4">
-        <v>84.03790354162</v>
+        <v>126.788016320205</v>
       </c>
       <c r="S4">
-        <v>0.01020904896842656</v>
+        <v>0.01035444146232669</v>
       </c>
       <c r="T4">
-        <v>0.01020904896842656</v>
+        <v>0.01035444146232669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H5">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I5">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J5">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N5">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O5">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P5">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q5">
-        <v>23.62638563595722</v>
+        <v>10.977684372388</v>
       </c>
       <c r="R5">
-        <v>212.637470723615</v>
+        <v>98.79915935149202</v>
       </c>
       <c r="S5">
-        <v>0.02583151482431552</v>
+        <v>0.008068665649350356</v>
       </c>
       <c r="T5">
-        <v>0.02583151482431553</v>
+        <v>0.008068665649350356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.675882</v>
       </c>
       <c r="I6">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J6">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N6">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O6">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P6">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q6">
-        <v>25.73023941310044</v>
+        <v>26.05032970954555</v>
       </c>
       <c r="R6">
-        <v>231.572154717904</v>
+        <v>234.45296738591</v>
       </c>
       <c r="S6">
-        <v>0.02813172827506687</v>
+        <v>0.01914715283765604</v>
       </c>
       <c r="T6">
-        <v>0.02813172827506687</v>
+        <v>0.01914715283765604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.675882</v>
       </c>
       <c r="I7">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J7">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P7">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q7">
         <v>1.547823201152222</v>
@@ -883,10 +883,10 @@
         <v>13.93040881037</v>
       </c>
       <c r="S7">
-        <v>0.001692286690907694</v>
+        <v>0.001137659589286197</v>
       </c>
       <c r="T7">
-        <v>0.001692286690907694</v>
+        <v>0.001137659589286197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.675882</v>
       </c>
       <c r="I8">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J8">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N8">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q8">
-        <v>0.3978819457484444</v>
+        <v>0.4746125755366666</v>
       </c>
       <c r="R8">
-        <v>3.580937511735999</v>
+        <v>4.27151317983</v>
       </c>
       <c r="S8">
-        <v>0.0004350175916999518</v>
+        <v>0.0003488431671996929</v>
       </c>
       <c r="T8">
-        <v>0.0004350175916999518</v>
+        <v>0.0003488431671996929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>1.675882</v>
       </c>
       <c r="I9">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J9">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N9">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O9">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P9">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q9">
-        <v>1.006743469613555</v>
+        <v>0.3698403432879999</v>
       </c>
       <c r="R9">
-        <v>9.060691226522</v>
+        <v>3.328563089592</v>
       </c>
       <c r="S9">
-        <v>0.00110070618757814</v>
+        <v>0.0002718349309748542</v>
       </c>
       <c r="T9">
-        <v>0.00110070618757814</v>
+        <v>0.0002718349309748543</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H10">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I10">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J10">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N10">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O10">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P10">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q10">
-        <v>186.6387273371475</v>
+        <v>446.817818984635</v>
       </c>
       <c r="R10">
-        <v>1679.748546034328</v>
+        <v>4021.360370861715</v>
       </c>
       <c r="S10">
-        <v>0.2040583408011228</v>
+        <v>0.3284138498850571</v>
       </c>
       <c r="T10">
-        <v>0.2040583408011228</v>
+        <v>0.3284138498850571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H11">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I11">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J11">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O11">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P11">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q11">
-        <v>11.22740242591278</v>
+        <v>26.548415878945</v>
       </c>
       <c r="R11">
-        <v>101.046621833215</v>
+        <v>238.935742910505</v>
       </c>
       <c r="S11">
-        <v>0.01227529325357902</v>
+        <v>0.01951324924097024</v>
       </c>
       <c r="T11">
-        <v>0.01227529325357902</v>
+        <v>0.01951324924097024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H12">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I12">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J12">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N12">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q12">
-        <v>2.886105286183556</v>
+        <v>8.140601605755</v>
       </c>
       <c r="R12">
-        <v>25.974947575652</v>
+        <v>73.26541445179501</v>
       </c>
       <c r="S12">
-        <v>0.003155475096077488</v>
+        <v>0.005983392336057242</v>
       </c>
       <c r="T12">
-        <v>0.003155475096077489</v>
+        <v>0.005983392336057242</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H13">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I13">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J13">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N13">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O13">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P13">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q13">
-        <v>7.302587313975445</v>
+        <v>6.343537966812</v>
       </c>
       <c r="R13">
-        <v>65.723285825779</v>
+        <v>57.09184170130801</v>
       </c>
       <c r="S13">
-        <v>0.007984162087396341</v>
+        <v>0.004662539489376084</v>
       </c>
       <c r="T13">
-        <v>0.007984162087396343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H14">
-        <v>0.278564</v>
-      </c>
-      <c r="I14">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J14">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>46.05975733333333</v>
-      </c>
-      <c r="N14">
-        <v>138.179272</v>
-      </c>
-      <c r="O14">
-        <v>0.8970651351272991</v>
-      </c>
-      <c r="P14">
-        <v>0.897065135127299</v>
-      </c>
-      <c r="Q14">
-        <v>4.276863413934222</v>
-      </c>
-      <c r="R14">
-        <v>38.491770725408</v>
-      </c>
-      <c r="S14">
-        <v>0.00467603730764799</v>
-      </c>
-      <c r="T14">
-        <v>0.00467603730764799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H15">
-        <v>0.278564</v>
-      </c>
-      <c r="I15">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J15">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.770761666666667</v>
-      </c>
-      <c r="N15">
-        <v>8.312284999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.05396367312415441</v>
-      </c>
-      <c r="P15">
-        <v>0.0539636731241544</v>
-      </c>
-      <c r="Q15">
-        <v>0.2572781509711111</v>
-      </c>
-      <c r="R15">
-        <v>2.31550335874</v>
-      </c>
-      <c r="S15">
-        <v>0.0002812907768959933</v>
-      </c>
-      <c r="T15">
-        <v>0.0002812907768959933</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H16">
-        <v>0.278564</v>
-      </c>
-      <c r="I16">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J16">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.7122493333333333</v>
-      </c>
-      <c r="N16">
-        <v>2.136748</v>
-      </c>
-      <c r="O16">
-        <v>0.01387184999319569</v>
-      </c>
-      <c r="P16">
-        <v>0.01387184999319569</v>
-      </c>
-      <c r="Q16">
-        <v>0.06613567443022221</v>
-      </c>
-      <c r="R16">
-        <v>0.595221069872</v>
-      </c>
-      <c r="S16">
-        <v>7.230833699168879E-05</v>
-      </c>
-      <c r="T16">
-        <v>7.230833699168879E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H17">
-        <v>0.278564</v>
-      </c>
-      <c r="I17">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J17">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.802173666666667</v>
-      </c>
-      <c r="N17">
-        <v>5.406521</v>
-      </c>
-      <c r="O17">
-        <v>0.03509934175535083</v>
-      </c>
-      <c r="P17">
-        <v>0.03509934175535083</v>
-      </c>
-      <c r="Q17">
-        <v>0.1673402350937777</v>
-      </c>
-      <c r="R17">
-        <v>1.506062115844</v>
-      </c>
-      <c r="S17">
-        <v>0.0001829586560608187</v>
-      </c>
-      <c r="T17">
-        <v>0.0001829586560608187</v>
+        <v>0.004662539489376085</v>
       </c>
     </row>
   </sheetData>
